--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/招新任务/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/New_recuit_of_Dian/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>孙昊海</t>
     <rPh sb="0" eb="1">
@@ -178,6 +178,16 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟帅</t>
+    <rPh sb="0" eb="1">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shuai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -630,6 +640,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>孙昊海</t>
     <rPh sb="0" eb="1">
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘泊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李瑞丰</t>
     <rPh sb="0" eb="1">
       <t>li</t>
@@ -189,6 +185,83 @@
     <rPh sb="1" eb="2">
       <t>shuai</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘泊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙昊海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽霖</t>
+  </si>
+  <si>
+    <t>李瑞丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐嘉程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭兆川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周宇轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳泽雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑞松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆华</t>
+    <rPh sb="0" eb="1">
+      <t>lu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,8 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,47 +586,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -560,39 +652,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
@@ -600,31 +707,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -632,20 +752,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="7740" yWindow="1320" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>孙昊海</t>
     <rPh sb="0" eb="1">
@@ -262,6 +262,132 @@
   </si>
   <si>
     <t>王力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹琪珺</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张新驿</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志宇</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃锦文</t>
+    <rPh sb="0" eb="1">
+      <t>wo'jin'wen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨金昊</t>
+    <rPh sb="0" eb="1">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘智超</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷紫薇</t>
+    <rPh sb="0" eb="1">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晓光</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xiao'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘董奇</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾耀沛</t>
+    <rPh sb="0" eb="1">
+      <t>zeng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡联飞</t>
+    <rPh sb="0" eb="1">
+      <t>cai'lian'fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -651,6 +777,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -660,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -670,11 +799,8 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -684,9 +810,6 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -696,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -706,6 +829,9 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -714,9 +840,11 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -726,11 +854,8 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -741,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -751,6 +876,9 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -759,26 +887,80 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E16" t="s">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="1320" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>孙昊海</t>
     <rPh sb="0" eb="1">
@@ -243,150 +243,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>周瑞松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆华</t>
+    <rPh sb="0" eb="1">
+      <t>lu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹琪珺</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张新驿</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志宇</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃锦文</t>
+    <rPh sb="0" eb="1">
+      <t>wo'jin'wen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨金昊</t>
+    <rPh sb="0" eb="1">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘智超</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷紫薇</t>
+    <rPh sb="0" eb="1">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晓光</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xiao'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘董奇</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾耀沛</t>
+    <rPh sb="0" eb="1">
+      <t>zeng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡联飞</t>
+    <rPh sb="0" eb="1">
+      <t>cai'lian'fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李黔宁</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qian'lv'ji'qiong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张阳泽雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周瑞松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆华</t>
-    <rPh sb="0" eb="1">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹琪珺</t>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张新驿</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'zhan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志宇</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃锦文</t>
-    <rPh sb="0" eb="1">
-      <t>wo'jin'wen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨金昊</t>
-    <rPh sb="0" eb="1">
-      <t>yang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘智超</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷紫薇</t>
-    <rPh sb="0" eb="1">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱晓光</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'xiao'guang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘董奇</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'guai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾耀沛</t>
-    <rPh sb="0" eb="1">
-      <t>zeng</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡联飞</t>
-    <rPh sb="0" eb="1">
-      <t>cai'lian'fei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lian</t>
+    <t>郭浩</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hao'hai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,7 +738,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -767,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -778,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -789,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -800,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -819,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -877,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -890,7 +913,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
@@ -904,30 +927,36 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>27</v>
       </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.15">
@@ -940,7 +969,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.15">
@@ -950,17 +979,17 @@
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -227,190 +227,181 @@
     <t>李泽霖</t>
   </si>
   <si>
+    <t>齐嘉程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭兆川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周宇轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑞松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆华</t>
+    <rPh sb="0" eb="1">
+      <t>lu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹琪珺</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张新驿</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志宇</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃锦文</t>
+    <rPh sb="0" eb="1">
+      <t>wo'jin'wen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘智超</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷紫薇</t>
+    <rPh sb="0" eb="1">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晓光</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xiao'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘董奇</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾耀沛</t>
+    <rPh sb="0" eb="1">
+      <t>zeng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡联飞</t>
+    <rPh sb="0" eb="1">
+      <t>cai'lian'fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李黔宁</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qian'lv'ji'qiong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳泽雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭浩</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hao'hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李瑞丰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>齐嘉程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭兆川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周宇轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周瑞松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆华</t>
-    <rPh sb="0" eb="1">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹琪珺</t>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张新驿</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'zhan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志宇</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃锦文</t>
-    <rPh sb="0" eb="1">
-      <t>wo'jin'wen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨金昊</t>
-    <rPh sb="0" eb="1">
-      <t>yang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘智超</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷紫薇</t>
-    <rPh sb="0" eb="1">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱晓光</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'xiao'guang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘董奇</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'guai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾耀沛</t>
-    <rPh sb="0" eb="1">
-      <t>zeng</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡联飞</t>
-    <rPh sb="0" eb="1">
-      <t>cai'lian'fei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李黔宁</t>
-    <rPh sb="0" eb="1">
-      <t>li</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qian'lv'ji'qiong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ning</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张阳泽雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭浩</t>
-    <rPh sb="0" eb="1">
-      <t>guo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hao'hai</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +729,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -790,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -801,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -812,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -823,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -842,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -878,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -889,7 +880,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -900,7 +891,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -913,7 +904,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
@@ -927,41 +918,43 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I20" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.15">
@@ -969,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.15">
@@ -979,17 +972,17 @@
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>孙昊海</t>
     <rPh sb="0" eb="1">
@@ -204,204 +204,248 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>15:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙昊海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐嘉程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭兆川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周宇轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑞松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆华</t>
+    <rPh sb="0" eb="1">
+      <t>lu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹琪珺</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张新驿</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志宇</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃锦文</t>
+    <rPh sb="0" eb="1">
+      <t>wo'jin'wen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘智超</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷紫薇</t>
+    <rPh sb="0" eb="1">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晓光</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xiao'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘董奇</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾耀沛</t>
+    <rPh sb="0" eb="1">
+      <t>zeng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳泽雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李瑞丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨金昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许洪深</t>
+    <rPh sb="0" eb="1">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴月</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>9:00-12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:00-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12:00-15:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙昊海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李泽霖</t>
-  </si>
-  <si>
-    <t>齐嘉程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭兆川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周宇轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周瑞松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆华</t>
-    <rPh sb="0" eb="1">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹琪珺</t>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张新驿</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
+    <t>蔡联飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李黔宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段冰洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖本成</t>
+    <rPh sb="0" eb="1">
+      <t>liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符史梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙紫檀</t>
+    <rPh sb="0" eb="1">
+      <t>sun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政鑫</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>xin</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'zhan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志宇</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃锦文</t>
-    <rPh sb="0" eb="1">
-      <t>wo'jin'wen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘智超</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷紫薇</t>
-    <rPh sb="0" eb="1">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱晓光</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'xiao'guang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘董奇</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'guai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾耀沛</t>
-    <rPh sb="0" eb="1">
-      <t>zeng</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡联飞</t>
-    <rPh sb="0" eb="1">
-      <t>cai'lian'fei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李黔宁</t>
-    <rPh sb="0" eb="1">
-      <t>li</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qian'lv'ji'qiong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ning</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张阳泽雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭浩</t>
-    <rPh sb="0" eb="1">
-      <t>guo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hao'hai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李瑞丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨金昊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -737,43 +781,50 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -781,10 +832,16 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -792,10 +849,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -803,10 +863,13 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -814,18 +877,27 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -833,35 +905,29 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
@@ -869,10 +935,13 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
@@ -880,10 +949,13 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -891,98 +963,76 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>孙昊海</t>
     <rPh sb="0" eb="1">
@@ -369,82 +369,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吴月</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡联飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李黔宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段冰洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖本成</t>
+    <rPh sb="0" eb="1">
+      <t>liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符史梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙紫檀</t>
+    <rPh sb="0" eb="1">
+      <t>sun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政鑫</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔志强</t>
+    <rPh sb="0" eb="1">
+      <t>cui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭羿江</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>许洪深</t>
-    <rPh sb="0" eb="1">
-      <t>xu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴月</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00-15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡联飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李黔宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段冰洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖本成</t>
-    <rPh sb="0" eb="1">
-      <t>liao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符史梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙紫檀</t>
-    <rPh sb="0" eb="1">
-      <t>sun</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王政鑫</t>
-    <rPh sb="0" eb="1">
-      <t>wang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵欣然</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'ran</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,15 +791,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -789,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -832,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -866,7 +888,7 @@
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -880,7 +902,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -905,10 +927,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -918,6 +940,9 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -926,6 +951,9 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -934,12 +962,6 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -952,7 +974,7 @@
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -963,10 +985,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -980,21 +1002,18 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
@@ -1002,8 +1021,11 @@
       <c r="F17" t="s">
         <v>21</v>
       </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
@@ -1011,7 +1033,7 @@
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
@@ -1019,7 +1041,7 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.15">
@@ -1027,12 +1049,23 @@
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/路演值班人员.xlsx
+++ b/路演值班人员.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>孙昊海</t>
     <rPh sb="0" eb="1">
@@ -228,245 +228,228 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陆华</t>
+    <rPh sb="0" eb="1">
+      <t>lu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹琪珺</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张新驿</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志宇</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃锦文</t>
+    <rPh sb="0" eb="1">
+      <t>wo'jin'wen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘智超</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晓光</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'xiao'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘董奇</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾耀沛</t>
+    <rPh sb="0" eb="1">
+      <t>zeng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阳泽雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李瑞丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨金昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴月</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡联飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李黔宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖本成</t>
+    <rPh sb="0" eb="1">
+      <t>liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符史梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙紫檀</t>
+    <rPh sb="0" eb="1">
+      <t>sun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政鑫</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔志强</t>
+    <rPh sb="0" eb="1">
+      <t>cui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭羿江</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许洪深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵欣然</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'ran</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>周瑞松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆华</t>
-    <rPh sb="0" eb="1">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹琪珺</t>
-    <rPh sb="2" eb="3">
-      <t>jun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张新驿</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'zhan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志宇</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃锦文</t>
-    <rPh sb="0" eb="1">
-      <t>wo'jin'wen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘智超</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷紫薇</t>
-    <rPh sb="0" eb="1">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱晓光</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'xiao'guang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘董奇</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'guai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾耀沛</t>
-    <rPh sb="0" eb="1">
-      <t>zeng</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张阳泽雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李瑞丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨金昊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李泽霖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴月</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00-15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡联飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李黔宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段冰洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖本成</t>
-    <rPh sb="0" eb="1">
-      <t>liao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符史梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙紫檀</t>
-    <rPh sb="0" eb="1">
-      <t>sun</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王政鑫</t>
-    <rPh sb="0" eb="1">
-      <t>wang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔志强</t>
-    <rPh sb="0" eb="1">
-      <t>cui</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi'qiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭羿江</t>
-    <rPh sb="0" eb="1">
-      <t>guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许洪深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵欣然</t>
-    <rPh sb="0" eb="1">
-      <t>zhao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xin'ran</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -810,8 +793,11 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -822,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -839,11 +825,11 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -854,13 +840,13 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -871,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -885,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -899,10 +885,10 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -913,10 +899,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -926,9 +912,6 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
@@ -941,7 +924,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -951,9 +934,6 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -971,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -985,10 +965,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -999,18 +979,18 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -1019,18 +999,18 @@
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
         <v>4</v>
@@ -1038,7 +1018,7 @@
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1046,26 +1026,25 @@
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
